--- a/statistiche/RandomForestCounterfactuals/MKA.xlsx
+++ b/statistiche/RandomForestCounterfactuals/MKA.xlsx
@@ -38,12 +38,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FAF5E9"/>
+        <fgColor rgb="00E9ECEF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFCCCB"/>
+        <fgColor rgb="00FFF3CD"/>
       </patternFill>
     </fill>
   </fills>
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T74"/>
+  <dimension ref="A1:T73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,77 +458,77 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Admission IC</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Release B</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Release D</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>ER Triage</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Admission IC</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Leucocytes</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ER Sepsis Triage</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>IV Antibiotics</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>IV Liquid</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Release A</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>IV Antibiotics</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Leucocytes</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Release B</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>LacticAcid</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>CRP</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Release C</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Admission NC</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>ER Registration</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>IV Liquid</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Release C</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>CRP</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>LacticAcid</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>ER Sepsis Triage</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Admission NC</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Release D</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
@@ -575,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="2" t="n">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
@@ -624,13 +624,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -691,7 +691,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2" t="n">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
@@ -755,38 +755,38 @@
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>2</v>
       </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -825,7 +825,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>0</v>
@@ -834,16 +834,16 @@
         <v>0</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
@@ -889,7 +889,7 @@
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -898,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -925,13 +925,13 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="2" t="n">
         <v>0</v>
@@ -995,13 +995,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1032,13 +1032,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -1047,25 +1047,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="2" t="n">
         <v>0</v>
@@ -1129,13 +1129,13 @@
         <v>0</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
@@ -1163,7 +1163,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>0</v>
@@ -1172,16 +1172,16 @@
         <v>0</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="2" t="n">
         <v>1</v>
@@ -1199,13 +1199,13 @@
         <v>0</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1236,16 +1236,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1266,10 +1266,10 @@
         <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="2" t="n">
         <v>1</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="2" t="n">
         <v>1</v>
@@ -1403,13 +1403,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>0</v>
@@ -1452,7 +1452,7 @@
         <v>2</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="2" t="n">
         <v>1</v>
@@ -1473,13 +1473,13 @@
         <v>0</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>0</v>
@@ -1522,7 +1522,7 @@
         <v>2</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="2" t="n">
         <v>1</v>
@@ -1543,13 +1543,13 @@
         <v>0</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>0</v>
@@ -1592,7 +1592,7 @@
         <v>2</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="2" t="n">
         <v>1</v>
@@ -1613,13 +1613,13 @@
         <v>0</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>0</v>
@@ -1662,7 +1662,7 @@
         <v>2</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="2" t="n">
         <v>1</v>
@@ -1683,13 +1683,13 @@
         <v>0</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>0</v>
@@ -1732,7 +1732,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="2" t="n">
         <v>1</v>
@@ -1744,22 +1744,22 @@
         <v>0</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="2" t="n">
         <v>3</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
@@ -1784,10 +1784,10 @@
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>1</v>
@@ -1796,25 +1796,25 @@
         <v>2</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>1</v>
@@ -1823,7 +1823,7 @@
         <v>1</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>0</v>
@@ -1866,7 +1866,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="2" t="n">
         <v>1</v>
@@ -1878,22 +1878,22 @@
         <v>0</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="2" t="n">
         <v>3</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
@@ -1915,13 +1915,13 @@
       <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F22" t="n">
         <v>1</v>
@@ -1930,10 +1930,10 @@
         <v>3</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
         <v>1</v>
@@ -1942,22 +1942,22 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>1</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>0</v>
@@ -2000,7 +2000,7 @@
         <v>3</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="2" t="n">
         <v>1</v>
@@ -2012,22 +2012,22 @@
         <v>0</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="2" t="n">
         <v>4</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>3</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="2" t="n">
         <v>1</v>
@@ -2082,22 +2082,22 @@
         <v>0</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M24" s="2" t="n">
         <v>4</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" s="2" t="n">
         <v>0</v>
@@ -2140,7 +2140,7 @@
         <v>4</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="2" t="n">
         <v>1</v>
@@ -2152,22 +2152,22 @@
         <v>0</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M25" s="2" t="n">
         <v>4</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>5</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="2" t="n">
         <v>1</v>
@@ -2222,22 +2222,22 @@
         <v>0</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M26" s="2" t="n">
         <v>4</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>0</v>
@@ -2280,7 +2280,7 @@
         <v>5</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="2" t="n">
         <v>1</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M27" s="2" t="n">
         <v>5</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>0</v>
@@ -2350,7 +2350,7 @@
         <v>5</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="2" t="n">
         <v>1</v>
@@ -2362,22 +2362,22 @@
         <v>0</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M28" s="2" t="n">
         <v>5</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" s="2" t="n">
         <v>0</v>
@@ -2420,7 +2420,7 @@
         <v>6</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="2" t="n">
         <v>1</v>
@@ -2432,22 +2432,22 @@
         <v>0</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M29" s="2" t="n">
         <v>5</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>6</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="2" t="n">
         <v>1</v>
@@ -2502,22 +2502,22 @@
         <v>0</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M30" s="2" t="n">
         <v>5</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
@@ -2542,10 +2542,10 @@
         <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
         <v>1</v>
@@ -2554,7 +2554,7 @@
         <v>6</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>1</v>
@@ -2566,22 +2566,22 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>1</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" s="2" t="n">
         <v>0</v>
@@ -2624,7 +2624,7 @@
         <v>6</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" s="2" t="n">
         <v>1</v>
@@ -2636,22 +2636,22 @@
         <v>0</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M32" s="2" t="n">
         <v>6</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" s="2" t="n">
         <v>0</v>
@@ -2694,7 +2694,7 @@
         <v>6</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" s="2" t="n">
         <v>1</v>
@@ -2706,22 +2706,22 @@
         <v>0</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M33" s="2" t="n">
         <v>6</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
@@ -2752,7 +2752,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" s="2" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>6</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" s="2" t="n">
         <v>1</v>
@@ -2776,22 +2776,22 @@
         <v>0</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M34" s="2" t="n">
         <v>7</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" s="2" t="n">
         <v>0</v>
@@ -2834,7 +2834,7 @@
         <v>7</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="2" t="n">
         <v>1</v>
@@ -2846,22 +2846,22 @@
         <v>0</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M35" s="2" t="n">
         <v>7</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>1</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" s="2" t="n">
         <v>0</v>
@@ -2904,7 +2904,7 @@
         <v>7</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" s="2" t="n">
         <v>1</v>
@@ -2916,22 +2916,22 @@
         <v>0</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M36" s="2" t="n">
         <v>8</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P36" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         <v>1</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" s="2" t="n">
         <v>0</v>
@@ -2974,7 +2974,7 @@
         <v>8</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" s="2" t="n">
         <v>1</v>
@@ -2986,22 +2986,22 @@
         <v>0</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M37" s="2" t="n">
         <v>8</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" s="2" t="n">
         <v>0</v>
@@ -3044,7 +3044,7 @@
         <v>8</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" s="2" t="n">
         <v>1</v>
@@ -3056,22 +3056,22 @@
         <v>0</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M38" s="2" t="n">
         <v>8</v>
       </c>
       <c r="N38" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P38" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         <v>1</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" s="2" t="n">
         <v>0</v>
@@ -3114,7 +3114,7 @@
         <v>8</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" s="2" t="n">
         <v>1</v>
@@ -3126,22 +3126,22 @@
         <v>0</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M39" s="2" t="n">
         <v>8</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P39" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
         <v>1</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" s="2" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         <v>9</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" s="2" t="n">
         <v>1</v>
@@ -3196,22 +3196,22 @@
         <v>0</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M40" s="2" t="n">
         <v>8</v>
       </c>
       <c r="N40" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P40" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40" s="2" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" s="2" t="n">
         <v>0</v>
@@ -3254,7 +3254,7 @@
         <v>9</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" s="2" t="n">
         <v>1</v>
@@ -3266,22 +3266,22 @@
         <v>0</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M41" s="2" t="n">
         <v>9</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P41" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R41" s="2" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
         <v>1</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" s="2" t="n">
         <v>0</v>
@@ -3324,7 +3324,7 @@
         <v>9</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" s="2" t="n">
         <v>1</v>
@@ -3336,1242 +3336,1242 @@
         <v>0</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M42" s="2" t="n">
         <v>9</v>
       </c>
       <c r="N42" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R42" s="2" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="S42" s="3" t="inlineStr">
+        <is>
+          <t>deviant</t>
+        </is>
+      </c>
+      <c r="T42" s="2" t="inlineStr">
+        <is>
+          <t>Original</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" t="n">
+        <v>9</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
         <v>8</v>
       </c>
-      <c r="O42" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P42" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q42" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" s="2" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="S42" s="2" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="T42" s="2" t="inlineStr">
+      <c r="M43" t="n">
+        <v>9</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>2</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Counterfactual</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>MKA</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="H44" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="M44" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="N44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R44" s="2" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="S44" s="3" t="inlineStr">
+        <is>
+          <t>deviant</t>
+        </is>
+      </c>
+      <c r="T44" s="2" t="inlineStr">
         <is>
           <t>Original</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="2" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr"/>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>3</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" t="n">
+        <v>9</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>8</v>
+      </c>
+      <c r="M45" t="n">
+        <v>10</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1</v>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Counterfactual</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
         <is>
           <t>MKA</t>
         </is>
       </c>
-      <c r="B43" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="C43" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D43" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E43" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G43" s="2" t="n">
+      <c r="B46" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="H46" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="M46" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="N46" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" s="2" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="S46" s="3" t="inlineStr">
+        <is>
+          <t>deviant</t>
+        </is>
+      </c>
+      <c r="T46" s="2" t="inlineStr">
+        <is>
+          <t>Original</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr"/>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" t="n">
+        <v>10</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
+      <c r="K47" t="n">
+        <v>3</v>
+      </c>
+      <c r="L47" t="n">
+        <v>8</v>
+      </c>
+      <c r="M47" t="n">
+        <v>10</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1</v>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Counterfactual</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>MKA</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="H48" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="M48" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="N48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R48" s="2" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="S48" s="3" t="inlineStr">
+        <is>
+          <t>deviant</t>
+        </is>
+      </c>
+      <c r="T48" s="2" t="inlineStr">
+        <is>
+          <t>Original</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" t="n">
+        <v>11</v>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>14</v>
+      </c>
+      <c r="M49" t="n">
+        <v>10</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1</v>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Counterfactual</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>MKA</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="H50" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="M50" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="N50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R50" s="2" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="S50" s="3" t="inlineStr">
+        <is>
+          <t>deviant</t>
+        </is>
+      </c>
+      <c r="T50" s="2" t="inlineStr">
+        <is>
+          <t>Original</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr"/>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" t="n">
+        <v>11</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="n">
+        <v>8</v>
+      </c>
+      <c r="M51" t="n">
+        <v>11</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>Counterfactual</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>MKA</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="C52" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="H52" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K52" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="H43" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J43" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K43" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" s="2" t="n">
+      <c r="M52" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="N52" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R52" s="2" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="S52" s="3" t="inlineStr">
+        <is>
+          <t>deviant</t>
+        </is>
+      </c>
+      <c r="T52" s="2" t="inlineStr">
+        <is>
+          <t>Original</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr"/>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" t="n">
+        <v>13</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>9</v>
+      </c>
+      <c r="M53" t="n">
+        <v>11</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1</v>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>Counterfactual</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>MKA</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="H54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K54" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="M54" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="N54" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R54" s="2" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="S54" s="3" t="inlineStr">
+        <is>
+          <t>deviant</t>
+        </is>
+      </c>
+      <c r="T54" s="2" t="inlineStr">
+        <is>
+          <t>Original</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr"/>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" t="n">
+        <v>12</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>9</v>
+      </c>
+      <c r="M55" t="n">
+        <v>11</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1</v>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>Counterfactual</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>MKA</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="C56" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="H56" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K56" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="M56" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="N56" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R56" s="2" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="S56" s="3" t="inlineStr">
+        <is>
+          <t>deviant</t>
+        </is>
+      </c>
+      <c r="T56" s="2" t="inlineStr">
+        <is>
+          <t>Original</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr"/>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" t="n">
+        <v>12</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>13</v>
+      </c>
+      <c r="M57" t="n">
+        <v>12</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1</v>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>Counterfactual</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>MKA</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="C58" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="H58" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I58" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="N43" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="O43" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P43" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q43" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" s="2" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="S43" s="3" t="inlineStr">
+      <c r="M58" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="N58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R58" s="2" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="S58" s="3" t="inlineStr">
         <is>
           <t>deviant</t>
         </is>
       </c>
-      <c r="T43" s="2" t="inlineStr">
+      <c r="T58" s="2" t="inlineStr">
         <is>
           <t>Original</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr"/>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="n">
-        <v>1</v>
-      </c>
-      <c r="D44" t="n">
-        <v>1</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>1</v>
-      </c>
-      <c r="G44" t="n">
-        <v>9</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
-      <c r="J44" t="n">
-        <v>3</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
+    <row r="59">
+      <c r="A59" t="inlineStr"/>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="n">
+        <v>1</v>
+      </c>
+      <c r="D59" t="n">
+        <v>4</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" t="n">
+        <v>12</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
         <v>10</v>
       </c>
-      <c r="N44" t="n">
+      <c r="M59" t="n">
         <v>12</v>
       </c>
-      <c r="O44" t="n">
-        <v>1</v>
-      </c>
-      <c r="P44" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="T44" t="inlineStr">
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1</v>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="T59" t="inlineStr">
         <is>
           <t>Counterfactual</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="2" t="inlineStr">
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
         <is>
           <t>MKA</t>
         </is>
       </c>
-      <c r="B45" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="C45" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D45" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G45" s="2" t="n">
+      <c r="B60" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="C60" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D60" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="H60" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K60" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="H45" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J45" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K45" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="N45" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="O45" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P45" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q45" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" s="2" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="S45" s="3" t="inlineStr">
-        <is>
-          <t>deviant</t>
-        </is>
-      </c>
-      <c r="T45" s="2" t="inlineStr">
+      <c r="M60" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="N60" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P60" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R60" s="2" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="S60" s="2" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="T60" s="2" t="inlineStr">
         <is>
           <t>Original</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr"/>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="n">
-        <v>1</v>
-      </c>
-      <c r="D46" t="n">
-        <v>1</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>1</v>
-      </c>
-      <c r="G46" t="n">
-        <v>10</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>10</v>
-      </c>
-      <c r="N46" t="n">
-        <v>10</v>
-      </c>
-      <c r="O46" t="n">
-        <v>3</v>
-      </c>
-      <c r="P46" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="T46" t="inlineStr">
-        <is>
-          <t>Counterfactual</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="inlineStr">
-        <is>
-          <t>MKA</t>
-        </is>
-      </c>
-      <c r="B47" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="C47" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D47" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E47" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G47" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="H47" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J47" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K47" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="N47" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="O47" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P47" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q47" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R47" s="2" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="S47" s="3" t="inlineStr">
-        <is>
-          <t>deviant</t>
-        </is>
-      </c>
-      <c r="T47" s="2" t="inlineStr">
-        <is>
-          <t>Original</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr"/>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="n">
-        <v>1</v>
-      </c>
-      <c r="D48" t="n">
-        <v>1</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G48" t="n">
-        <v>11</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" t="n">
-        <v>12</v>
-      </c>
-      <c r="N48" t="n">
-        <v>12</v>
-      </c>
-      <c r="O48" t="n">
-        <v>1</v>
-      </c>
-      <c r="P48" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>0</v>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>Counterfactual</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="inlineStr">
-        <is>
-          <t>MKA</t>
-        </is>
-      </c>
-      <c r="B49" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="C49" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D49" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G49" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="H49" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J49" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K49" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M49" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="N49" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="O49" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P49" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q49" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R49" s="2" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="S49" s="3" t="inlineStr">
-        <is>
-          <t>deviant</t>
-        </is>
-      </c>
-      <c r="T49" s="2" t="inlineStr">
-        <is>
-          <t>Original</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr"/>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" t="n">
-        <v>1</v>
-      </c>
-      <c r="D50" t="n">
-        <v>1</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>1</v>
-      </c>
-      <c r="G50" t="n">
-        <v>11</v>
-      </c>
-      <c r="H50" t="n">
-        <v>3</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0</v>
-      </c>
-      <c r="M50" t="n">
-        <v>11</v>
-      </c>
-      <c r="N50" t="n">
-        <v>8</v>
-      </c>
-      <c r="O50" t="n">
-        <v>1</v>
-      </c>
-      <c r="P50" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>0</v>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="T50" t="inlineStr">
-        <is>
-          <t>Counterfactual</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="inlineStr">
-        <is>
-          <t>MKA</t>
-        </is>
-      </c>
-      <c r="B51" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="C51" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D51" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E51" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G51" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="H51" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J51" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K51" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L51" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M51" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="N51" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="O51" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P51" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q51" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R51" s="2" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="S51" s="3" t="inlineStr">
-        <is>
-          <t>deviant</t>
-        </is>
-      </c>
-      <c r="T51" s="2" t="inlineStr">
-        <is>
-          <t>Original</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr"/>
-      <c r="B52" t="inlineStr"/>
-      <c r="C52" t="n">
-        <v>1</v>
-      </c>
-      <c r="D52" t="n">
-        <v>1</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" t="n">
-        <v>1</v>
-      </c>
-      <c r="G52" t="n">
-        <v>11</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1</v>
-      </c>
-      <c r="K52" t="n">
-        <v>4</v>
-      </c>
-      <c r="L52" t="n">
-        <v>0</v>
-      </c>
-      <c r="M52" t="n">
-        <v>11</v>
-      </c>
-      <c r="N52" t="n">
-        <v>10</v>
-      </c>
-      <c r="O52" t="n">
-        <v>1</v>
-      </c>
-      <c r="P52" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>0</v>
-      </c>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="T52" t="inlineStr">
-        <is>
-          <t>Counterfactual</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="inlineStr">
-        <is>
-          <t>MKA</t>
-        </is>
-      </c>
-      <c r="B53" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="C53" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D53" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E53" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G53" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="H53" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J53" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K53" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L53" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M53" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="N53" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="O53" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P53" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q53" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R53" s="2" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="S53" s="3" t="inlineStr">
-        <is>
-          <t>deviant</t>
-        </is>
-      </c>
-      <c r="T53" s="2" t="inlineStr">
-        <is>
-          <t>Original</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr"/>
-      <c r="B54" t="inlineStr"/>
-      <c r="C54" t="n">
-        <v>1</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1</v>
-      </c>
-      <c r="E54" t="n">
-        <v>2</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1</v>
-      </c>
-      <c r="G54" t="n">
-        <v>12</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0</v>
-      </c>
-      <c r="L54" t="n">
-        <v>0</v>
-      </c>
-      <c r="M54" t="n">
-        <v>11</v>
-      </c>
-      <c r="N54" t="n">
-        <v>15</v>
-      </c>
-      <c r="O54" t="n">
-        <v>1</v>
-      </c>
-      <c r="P54" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>0</v>
-      </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="T54" t="inlineStr">
-        <is>
-          <t>Counterfactual</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="inlineStr">
-        <is>
-          <t>MKA</t>
-        </is>
-      </c>
-      <c r="B55" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="C55" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D55" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E55" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G55" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="H55" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J55" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K55" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L55" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M55" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="N55" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="O55" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P55" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q55" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R55" s="2" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="S55" s="3" t="inlineStr">
-        <is>
-          <t>deviant</t>
-        </is>
-      </c>
-      <c r="T55" s="2" t="inlineStr">
-        <is>
-          <t>Original</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr"/>
-      <c r="B56" t="inlineStr"/>
-      <c r="C56" t="n">
-        <v>1</v>
-      </c>
-      <c r="D56" t="n">
-        <v>1</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" t="n">
-        <v>1</v>
-      </c>
-      <c r="G56" t="n">
-        <v>12</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
-      <c r="J56" t="n">
-        <v>1</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0</v>
-      </c>
-      <c r="L56" t="n">
-        <v>4</v>
-      </c>
-      <c r="M56" t="n">
-        <v>12</v>
-      </c>
-      <c r="N56" t="n">
-        <v>12</v>
-      </c>
-      <c r="O56" t="n">
-        <v>1</v>
-      </c>
-      <c r="P56" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>0</v>
-      </c>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="T56" t="inlineStr">
-        <is>
-          <t>Counterfactual</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="inlineStr">
-        <is>
-          <t>MKA</t>
-        </is>
-      </c>
-      <c r="B57" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="C57" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D57" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E57" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G57" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="H57" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J57" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K57" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M57" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="N57" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="O57" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P57" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q57" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R57" s="2" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="S57" s="3" t="inlineStr">
-        <is>
-          <t>deviant</t>
-        </is>
-      </c>
-      <c r="T57" s="2" t="inlineStr">
-        <is>
-          <t>Original</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr"/>
-      <c r="B58" t="inlineStr"/>
-      <c r="C58" t="n">
-        <v>1</v>
-      </c>
-      <c r="D58" t="n">
-        <v>1</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" t="n">
-        <v>1</v>
-      </c>
-      <c r="G58" t="n">
-        <v>12</v>
-      </c>
-      <c r="H58" t="n">
-        <v>5</v>
-      </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
-      <c r="J58" t="n">
-        <v>1</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0</v>
-      </c>
-      <c r="L58" t="n">
-        <v>0</v>
-      </c>
-      <c r="M58" t="n">
-        <v>12</v>
-      </c>
-      <c r="N58" t="n">
-        <v>10</v>
-      </c>
-      <c r="O58" t="n">
-        <v>1</v>
-      </c>
-      <c r="P58" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>0</v>
-      </c>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="T58" t="inlineStr">
-        <is>
-          <t>Counterfactual</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="inlineStr">
-        <is>
-          <t>MKA</t>
-        </is>
-      </c>
-      <c r="B59" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="C59" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D59" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E59" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F59" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G59" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="H59" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J59" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K59" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L59" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M59" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="N59" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="O59" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P59" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q59" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R59" s="2" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="S59" s="3" t="inlineStr">
-        <is>
-          <t>deviant</t>
-        </is>
-      </c>
-      <c r="T59" s="2" t="inlineStr">
-        <is>
-          <t>Original</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr"/>
-      <c r="B60" t="inlineStr"/>
-      <c r="C60" t="n">
-        <v>1</v>
-      </c>
-      <c r="D60" t="n">
-        <v>1</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0</v>
-      </c>
-      <c r="F60" t="n">
-        <v>1</v>
-      </c>
-      <c r="G60" t="n">
-        <v>12</v>
-      </c>
-      <c r="H60" t="n">
-        <v>4</v>
-      </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0</v>
-      </c>
-      <c r="L60" t="n">
-        <v>0</v>
-      </c>
-      <c r="M60" t="n">
-        <v>13</v>
-      </c>
-      <c r="N60" t="n">
-        <v>10</v>
-      </c>
-      <c r="O60" t="n">
-        <v>1</v>
-      </c>
-      <c r="P60" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>0</v>
-      </c>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="T60" t="inlineStr">
-        <is>
-          <t>Counterfactual</t>
         </is>
       </c>
     </row>
@@ -4588,7 +4588,7 @@
         <v>1</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61" s="2" t="n">
         <v>0</v>
@@ -4600,7 +4600,7 @@
         <v>13</v>
       </c>
       <c r="H61" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" s="2" t="n">
         <v>1</v>
@@ -4612,31 +4612,31 @@
         <v>0</v>
       </c>
       <c r="L61" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M61" s="2" t="n">
         <v>13</v>
       </c>
       <c r="N61" s="2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O61" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P61" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q61" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R61" s="2" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
       </c>
-      <c r="S61" s="3" t="inlineStr">
-        <is>
-          <t>deviant</t>
+      <c r="S61" s="2" t="inlineStr">
+        <is>
+          <t>regular</t>
         </is>
       </c>
       <c r="T61" s="2" t="inlineStr">
@@ -4646,66 +4646,72 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr"/>
-      <c r="B62" t="inlineStr"/>
-      <c r="C62" t="n">
-        <v>1</v>
-      </c>
-      <c r="D62" t="n">
-        <v>1</v>
-      </c>
-      <c r="E62" t="n">
-        <v>3</v>
-      </c>
-      <c r="F62" t="n">
-        <v>1</v>
-      </c>
-      <c r="G62" t="n">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>MKA</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="C62" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0</v>
-      </c>
-      <c r="L62" t="n">
-        <v>0</v>
-      </c>
-      <c r="M62" t="n">
-        <v>16</v>
-      </c>
-      <c r="N62" t="n">
-        <v>10</v>
-      </c>
-      <c r="O62" t="n">
-        <v>1</v>
-      </c>
-      <c r="P62" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>0</v>
-      </c>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="T62" t="inlineStr">
-        <is>
-          <t>Counterfactual</t>
+      <c r="H62" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I62" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K62" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="M62" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="N62" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R62" s="2" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="S62" s="2" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="T62" s="2" t="inlineStr">
+        <is>
+          <t>Original</t>
         </is>
       </c>
     </row>
@@ -4716,13 +4722,13 @@
         </is>
       </c>
       <c r="B63" s="2" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63" s="2" t="n">
         <v>0</v>
@@ -4734,7 +4740,7 @@
         <v>13</v>
       </c>
       <c r="H63" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" s="2" t="n">
         <v>1</v>
@@ -4746,22 +4752,22 @@
         <v>0</v>
       </c>
       <c r="L63" s="2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M63" s="2" t="n">
         <v>13</v>
       </c>
       <c r="N63" s="2" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="O63" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P63" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q63" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R63" s="2" t="inlineStr">
         <is>
@@ -4786,13 +4792,13 @@
         </is>
       </c>
       <c r="B64" s="2" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E64" s="2" t="n">
         <v>0</v>
@@ -4801,10 +4807,10 @@
         <v>1</v>
       </c>
       <c r="G64" s="2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H64" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" s="2" t="n">
         <v>1</v>
@@ -4816,22 +4822,22 @@
         <v>0</v>
       </c>
       <c r="L64" s="2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M64" s="2" t="n">
         <v>13</v>
       </c>
       <c r="N64" s="2" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="O64" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P64" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q64" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R64" s="2" t="inlineStr">
         <is>
@@ -4856,13 +4862,13 @@
         </is>
       </c>
       <c r="B65" s="2" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65" s="2" t="n">
         <v>0</v>
@@ -4874,7 +4880,7 @@
         <v>14</v>
       </c>
       <c r="H65" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" s="2" t="n">
         <v>1</v>
@@ -4886,22 +4892,22 @@
         <v>0</v>
       </c>
       <c r="L65" s="2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M65" s="2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N65" s="2" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="O65" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P65" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q65" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R65" s="2" t="inlineStr">
         <is>
@@ -4926,13 +4932,13 @@
         </is>
       </c>
       <c r="B66" s="2" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E66" s="2" t="n">
         <v>0</v>
@@ -4941,10 +4947,10 @@
         <v>1</v>
       </c>
       <c r="G66" s="2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H66" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" s="2" t="n">
         <v>1</v>
@@ -4956,438 +4962,438 @@
         <v>0</v>
       </c>
       <c r="L66" s="2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M66" s="2" t="n">
         <v>14</v>
       </c>
       <c r="N66" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q66" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R66" s="2" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="S66" s="3" t="inlineStr">
+        <is>
+          <t>deviant</t>
+        </is>
+      </c>
+      <c r="T66" s="2" t="inlineStr">
+        <is>
+          <t>Original</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr"/>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1</v>
+      </c>
+      <c r="G67" t="n">
+        <v>15</v>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
+      <c r="K67" t="n">
+        <v>2</v>
+      </c>
+      <c r="L67" t="n">
         <v>12</v>
       </c>
-      <c r="O66" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P66" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q66" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R66" s="2" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="S66" s="2" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="T66" s="2" t="inlineStr">
+      <c r="M67" t="n">
+        <v>14</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0</v>
+      </c>
+      <c r="P67" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>1</v>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>Counterfactual</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>MKA</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="C68" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G68" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="H68" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I68" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K68" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="M68" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="N68" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P68" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q68" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R68" s="2" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="S68" s="3" t="inlineStr">
+        <is>
+          <t>deviant</t>
+        </is>
+      </c>
+      <c r="T68" s="2" t="inlineStr">
         <is>
           <t>Original</t>
         </is>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="2" t="inlineStr">
+    <row r="69">
+      <c r="A69" t="inlineStr"/>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1</v>
+      </c>
+      <c r="G69" t="n">
+        <v>15</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>13</v>
+      </c>
+      <c r="M69" t="n">
+        <v>14</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>Counterfactual</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
         <is>
           <t>MKA</t>
         </is>
       </c>
-      <c r="B67" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="C67" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D67" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E67" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F67" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G67" s="2" t="n">
+      <c r="B70" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="C70" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G70" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="H67" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J67" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K67" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L67" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M67" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="N67" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="O67" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P67" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q67" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R67" s="2" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="S67" s="3" t="inlineStr">
+      <c r="H70" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I70" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K70" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="M70" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="N70" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P70" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q70" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R70" s="2" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="S70" s="3" t="inlineStr">
         <is>
           <t>deviant</t>
         </is>
       </c>
-      <c r="T67" s="2" t="inlineStr">
+      <c r="T70" s="2" t="inlineStr">
         <is>
           <t>Original</t>
         </is>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="inlineStr"/>
-      <c r="B68" t="inlineStr"/>
-      <c r="C68" t="n">
-        <v>1</v>
-      </c>
-      <c r="D68" t="n">
-        <v>1</v>
-      </c>
-      <c r="E68" t="n">
-        <v>0</v>
-      </c>
-      <c r="F68" t="n">
-        <v>1</v>
-      </c>
-      <c r="G68" t="n">
+    <row r="71">
+      <c r="A71" t="inlineStr"/>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="n">
+        <v>1</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>8</v>
+      </c>
+      <c r="G71" t="n">
         <v>15</v>
       </c>
-      <c r="H68" t="n">
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
+      <c r="K71" t="n">
         <v>2</v>
       </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0</v>
-      </c>
-      <c r="L68" t="n">
-        <v>0</v>
-      </c>
-      <c r="M68" t="n">
-        <v>14</v>
-      </c>
-      <c r="N68" t="n">
-        <v>12</v>
-      </c>
-      <c r="O68" t="n">
-        <v>1</v>
-      </c>
-      <c r="P68" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>0</v>
-      </c>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="S68" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="T68" t="inlineStr">
+      <c r="L71" t="n">
+        <v>13</v>
+      </c>
+      <c r="M71" t="n">
+        <v>15</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0</v>
+      </c>
+      <c r="P71" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>1</v>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="T71" t="inlineStr">
         <is>
           <t>Counterfactual</t>
         </is>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="2" t="inlineStr">
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr">
         <is>
           <t>MKA</t>
         </is>
       </c>
-      <c r="B69" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="C69" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D69" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E69" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G69" s="2" t="n">
+      <c r="B72" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="C72" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D72" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G72" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="H69" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K69" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L69" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M69" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="N69" s="2" t="n">
+      <c r="H72" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I72" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K72" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="O69" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P69" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q69" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R69" s="2" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="S69" s="3" t="inlineStr">
-        <is>
-          <t>deviant</t>
-        </is>
-      </c>
-      <c r="T69" s="2" t="inlineStr">
+      <c r="M72" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="N72" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P72" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q72" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R72" s="2" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="S72" s="2" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="T72" s="2" t="inlineStr">
         <is>
           <t>Original</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr"/>
-      <c r="B70" t="inlineStr"/>
-      <c r="C70" t="n">
-        <v>1</v>
-      </c>
-      <c r="D70" t="n">
-        <v>1</v>
-      </c>
-      <c r="E70" t="n">
-        <v>1</v>
-      </c>
-      <c r="F70" t="n">
-        <v>2</v>
-      </c>
-      <c r="G70" t="n">
-        <v>15</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0</v>
-      </c>
-      <c r="L70" t="n">
-        <v>0</v>
-      </c>
-      <c r="M70" t="n">
-        <v>14</v>
-      </c>
-      <c r="N70" t="n">
-        <v>13</v>
-      </c>
-      <c r="O70" t="n">
-        <v>1</v>
-      </c>
-      <c r="P70" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>0</v>
-      </c>
-      <c r="R70" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="S70" s="3" t="inlineStr">
-        <is>
-          <t>deviant</t>
-        </is>
-      </c>
-      <c r="T70" t="inlineStr">
-        <is>
-          <t>Counterfactual</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="inlineStr">
-        <is>
-          <t>MKA</t>
-        </is>
-      </c>
-      <c r="B71" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="C71" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D71" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E71" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F71" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G71" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="H71" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K71" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L71" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M71" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="N71" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="O71" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P71" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q71" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R71" s="2" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="S71" s="3" t="inlineStr">
-        <is>
-          <t>deviant</t>
-        </is>
-      </c>
-      <c r="T71" s="2" t="inlineStr">
-        <is>
-          <t>Original</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr"/>
-      <c r="B72" t="inlineStr"/>
-      <c r="C72" t="n">
-        <v>1</v>
-      </c>
-      <c r="D72" t="n">
-        <v>1</v>
-      </c>
-      <c r="E72" t="n">
-        <v>0</v>
-      </c>
-      <c r="F72" t="n">
-        <v>1</v>
-      </c>
-      <c r="G72" t="n">
-        <v>15</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1</v>
-      </c>
-      <c r="K72" t="n">
-        <v>2</v>
-      </c>
-      <c r="L72" t="n">
-        <v>0</v>
-      </c>
-      <c r="M72" t="n">
-        <v>15</v>
-      </c>
-      <c r="N72" t="n">
-        <v>13</v>
-      </c>
-      <c r="O72" t="n">
-        <v>1</v>
-      </c>
-      <c r="P72" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>0</v>
-      </c>
-      <c r="R72" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="S72" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="T72" t="inlineStr">
-        <is>
-          <t>Counterfactual</t>
         </is>
       </c>
     </row>
@@ -5398,13 +5404,13 @@
         </is>
       </c>
       <c r="B73" s="2" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73" s="2" t="n">
         <v>0</v>
@@ -5416,7 +5422,7 @@
         <v>15</v>
       </c>
       <c r="H73" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" s="2" t="n">
         <v>1</v>
@@ -5425,25 +5431,25 @@
         <v>1</v>
       </c>
       <c r="K73" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L73" s="2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M73" s="2" t="n">
         <v>15</v>
       </c>
       <c r="N73" s="2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="O73" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P73" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q73" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R73" s="2" t="inlineStr">
         <is>
@@ -5456,76 +5462,6 @@
         </is>
       </c>
       <c r="T73" s="2" t="inlineStr">
-        <is>
-          <t>Original</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="inlineStr">
-        <is>
-          <t>MKA</t>
-        </is>
-      </c>
-      <c r="B74" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="C74" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D74" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E74" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F74" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G74" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="H74" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J74" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K74" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L74" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M74" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="N74" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="O74" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P74" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q74" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R74" s="2" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="S74" s="2" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="T74" s="2" t="inlineStr">
         <is>
           <t>Original</t>
         </is>
